--- a/Plantilla VIsitas_bash_ingresos.xlsx
+++ b/Plantilla VIsitas_bash_ingresos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2A430-3CCB-411E-96AF-EF5BFD0B7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58EE97-4D15-4439-AE78-111EE3D14E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>46007</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>46007</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>46007</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">

--- a/Plantilla VIsitas_bash_ingresos.xlsx
+++ b/Plantilla VIsitas_bash_ingresos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58EE97-4D15-4439-AE78-111EE3D14E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82B789-08D5-4BA1-95B3-EAB3DB2C0773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-13695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>46008</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>46008</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>46008</v>
+        <v>46009</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">

--- a/Plantilla VIsitas_bash_ingresos.xlsx
+++ b/Plantilla VIsitas_bash_ingresos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82B789-08D5-4BA1-95B3-EAB3DB2C0773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7990686B-87F6-4FF5-8787-671BD2449621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Nombres</t>
   </si>
@@ -79,21 +79,6 @@
     </r>
   </si>
   <si>
-    <t>Cristian Nuñez</t>
-  </si>
-  <si>
-    <t>Mario Ormazabal</t>
-  </si>
-  <si>
-    <t>Víctor Sánchez Gutiérrez</t>
-  </si>
-  <si>
-    <t>20.000.681-k</t>
-  </si>
-  <si>
-    <t>8.027.445-9</t>
-  </si>
-  <si>
     <t>16.476.052-9</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>Tecnico</t>
   </si>
   <si>
-    <t>RL RZ 59</t>
-  </si>
-  <si>
     <t>RL.RZ.44</t>
   </si>
   <si>
@@ -113,6 +95,66 @@
   </si>
   <si>
     <t>Trabajos PCI Vulcanizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSVALDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO </t>
+  </si>
+  <si>
+    <t>SANCHEZ </t>
+  </si>
+  <si>
+    <t>QUEZADA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuñez </t>
+  </si>
+  <si>
+    <t>Sánchez </t>
+  </si>
+  <si>
+    <t>14.010.414-0</t>
+  </si>
+  <si>
+    <t>15.727.383-3</t>
+  </si>
+  <si>
+    <t>12.130.273-K</t>
+  </si>
+  <si>
+    <t>18.629.670-2</t>
+  </si>
+  <si>
+    <t>RKRD-61</t>
+  </si>
+  <si>
+    <t>KRGC-47</t>
+  </si>
+  <si>
+    <t>KRGC-48</t>
+  </si>
+  <si>
+    <t>RLRZ-58</t>
   </si>
 </sst>
 </file>
@@ -312,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +721,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,101 +774,160 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7">
-        <v>46009</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>46009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46009</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>46010</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>

--- a/Plantilla VIsitas_bash_ingresos.xlsx
+++ b/Plantilla VIsitas_bash_ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7990686B-87F6-4FF5-8787-671BD2449621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8935196-B55D-46DD-8DEA-5621472C2172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Nombres</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t>18.629.670-2</t>
-  </si>
-  <si>
-    <t>RKRD-61</t>
-  </si>
-  <si>
-    <t>KRGC-47</t>
-  </si>
-  <si>
-    <t>KRGC-48</t>
   </si>
   <si>
     <t>RLRZ-58</t>
@@ -354,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +363,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,9 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,31 +713,31 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.44140625" customWidth="1"/>
     <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="50.4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -790,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -848,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -867,14 +859,12 @@
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -884,7 +874,7 @@
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -893,14 +883,12 @@
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -910,7 +898,7 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -919,14 +907,12 @@
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -975,7 +961,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
